--- a/biology/Médecine/Nerfs_ciliaires_courts/Nerfs_ciliaires_courts.xlsx
+++ b/biology/Médecine/Nerfs_ciliaires_courts/Nerfs_ciliaires_courts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs ciliaires courts au nombre de cinq à six, sont des nerfs de l'œil.
 Ce sont des branches du ganglion ciliaire. Ils fournissent des fibres nerveuses parasympathiques et sympathiques au muscle ciliaire, à l'iris et à la cornée.
@@ -513,10 +525,12 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nerfs ciliaires courts sont des branches du ganglion ciliaire[1]. Ils proviennent de la partie antérieure du ganglion en deux faisceaux supérieur et inférieur. Le faisceau inférieur est le plus grand que le faisceau supérieur. Ceux-ci se divisent en 6 à 10 filaments.
-Ils cheminent en avant avec les artères ciliaires dans un parcours sinueux[1]. Un faisceau est placé au-dessus du nerf optique, l'autre faisceau en dessous. Ils sont accompagnés des nerfs ciliaires longs issus du nerf naso-ciliaire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nerfs ciliaires courts sont des branches du ganglion ciliaire. Ils proviennent de la partie antérieure du ganglion en deux faisceaux supérieur et inférieur. Le faisceau inférieur est le plus grand que le faisceau supérieur. Ceux-ci se divisent en 6 à 10 filaments.
+Ils cheminent en avant avec les artères ciliaires dans un parcours sinueux. Un faisceau est placé au-dessus du nerf optique, l'autre faisceau en dessous. Ils sont accompagnés des nerfs ciliaires longs issus du nerf naso-ciliaire.
 Ils percent la sclérotique à l'arrière du bulbe de l'œil, passent en avant dans des rainures sur la surface interne de la sclérotique et sont distribués au muscle ciliaire, au muscle dilatateur de la pupille, au muscle sphincter de la pupille, à l'iris et à la cornée.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs ciliaires courts contiennent à la fois des fibres nerveuses parasympathiques et sympathiques.
 Les fibres parasympathiques proviennent du noyau d'Edinger-Westphal et des synapses dans le ganglion ciliaire via le nerf oculomoteur. Les fibres parasympathiques post-ganglionnaires quittent le ganglion ciliaire dans le nerf ciliaire court et alimentent le corps ciliaire et l'iris.
@@ -579,9 +595,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lésions du nerf ciliaire court peuvent entraîner une perte du réflexe lumineux pupillaire[2] ou une mydriase.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lésions du nerf ciliaire court peuvent entraîner une perte du réflexe lumineux pupillaire ou une mydriase.
 </t>
         </is>
       </c>
